--- a/Annual Report on Exchange Arrangements and Exchange Restrictions主题分析/AnnualReportonExchangeArrangementsandExchangeRestrictions1972.xlsx
+++ b/Annual Report on Exchange Arrangements and Exchange Restrictions主题分析/AnnualReportonExchangeArrangementsandExchangeRestrictions1972.xlsx
@@ -37,19 +37,19 @@
     <t>主题5</t>
   </si>
   <si>
-    <t>0.013*"exchange" + 0.012*"import" + 0.012*"bank" + 0.012*"foreign" + 0.008*"export" + 0.007*"may" + 0.007*"account" + 0.007*"currency" + 0.006*"per" + 0.006*"license"</t>
-  </si>
-  <si>
-    <t>0.001*"exchange" + 0.001*"import" + 0.001*"may" + 0.001*"foreign" + 0.001*"bank" + 0.001*"payment" + 0.001*"per" + 0.001*"account" + 0.001*"export" + 0.001*"country"</t>
-  </si>
-  <si>
-    <t>0.018*"import" + 0.017*"exchange" + 0.015*"bank" + 0.015*"foreign" + 0.012*"may" + 0.011*"export" + 0.010*"account" + 0.010*"currency" + 0.010*"per" + 0.010*"country"</t>
-  </si>
-  <si>
-    <t>0.003*"import" + 0.002*"foreign" + 0.002*"bank" + 0.002*"exchange" + 0.002*"currency" + 0.002*"account" + 0.001*"rate" + 0.001*"may" + 0.001*"export" + 0.001*"per"</t>
-  </si>
-  <si>
-    <t>0.007*"bank" + 0.007*"import" + 0.006*"foreign" + 0.005*"country" + 0.005*"exchange" + 0.004*"rate" + 0.004*"per" + 0.004*"account" + 0.004*"currency" + 0.004*"export"</t>
+    <t>0.080*"import" + 0.044*"per" + 0.039*"export" + 0.030*"cent" + 0.025*"license" + 0.019*"good" + 0.017*"rate" + 0.012*"payment" + 0.011*"u" + 0.010*"subject"</t>
+  </si>
+  <si>
+    <t>0.044*"gold" + 0.041*"rate" + 0.032*"dollar" + 0.023*"exchange" + 0.017*"market" + 0.015*"value" + 0.013*"par" + 0.013*"maintain" + 0.012*"sell" + 0.012*"form"</t>
+  </si>
+  <si>
+    <t>0.043*"bank" + 0.041*"exchange" + 0.030*"foreign" + 0.015*"capital" + 0.013*"must" + 0.013*"require" + 0.012*"control" + 0.012*"payment" + 0.011*"approval" + 0.011*"investment"</t>
+  </si>
+  <si>
+    <t>0.031*"fund" + 0.026*"monetary" + 0.021*"international" + 0.021*"th" + 0.017*"ed" + 0.015*"august" + 0.012*"nd" + 0.012*"ch" + 0.012*"im" + 0.012*"t"</t>
+  </si>
+  <si>
+    <t>0.044*"account" + 0.041*"currency" + 0.040*"may" + 0.029*"foreign" + 0.029*"country" + 0.028*"resident" + 0.025*"sterling" + 0.021*"nonresident" + 0.014*"franc" + 0.014*"ea"</t>
   </si>
 </sst>
 </file>
